--- a/API/API_TPL/Templates/Baocaothanhpham.xlsx
+++ b/API/API_TPL/Templates/Baocaothanhpham.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\39.CODE_OUT\camxuan68\htx_camxuan\API\API_TPL\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6309181-0670-4F7C-96CA-ED390F5DE6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="15315" windowHeight="5715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="thongkethanhpham" sheetId="1" r:id="rId1"/>
@@ -45,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,18 +103,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -116,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +232,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,6 +284,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,312 +477,316 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="24" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -716,24 +794,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
